--- a/doors-detector/results/house9_door_no_door.xlsx
+++ b/doors-detector/results/house9_door_no_door.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7555629853602286</v>
+        <v>0.7719863623056324</v>
       </c>
       <c r="F2" t="n">
         <v>4100</v>
       </c>
       <c r="G2" t="n">
-        <v>3325</v>
+        <v>3358</v>
       </c>
       <c r="H2" t="n">
-        <v>775</v>
+        <v>742</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4991160900873117</v>
+        <v>0.4917906195189566</v>
       </c>
       <c r="F3" t="n">
         <v>333</v>
       </c>
       <c r="G3" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H3" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.7928240211059696</v>
+        <v>0.8028672750080269</v>
       </c>
       <c r="F4" t="n">
         <v>4100</v>
       </c>
       <c r="G4" t="n">
-        <v>3470</v>
+        <v>3497</v>
       </c>
       <c r="H4" t="n">
-        <v>630</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7258934030354963</v>
+        <v>0.7153953536363643</v>
       </c>
       <c r="F5" t="n">
         <v>333</v>
       </c>
       <c r="G5" t="n">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H5" t="n">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.7915305026211591</v>
+        <v>0.7886140501885989</v>
       </c>
       <c r="F6" t="n">
         <v>4100</v>
       </c>
       <c r="G6" t="n">
-        <v>3457</v>
+        <v>3450</v>
       </c>
       <c r="H6" t="n">
-        <v>643</v>
+        <v>650</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.7381613153380506</v>
+        <v>0.7481967145678323</v>
       </c>
       <c r="F7" t="n">
         <v>333</v>
       </c>
       <c r="G7" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H7" t="n">
-        <v>342</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7848766056211797</v>
+        <v>0.7777805197129833</v>
       </c>
       <c r="F8" t="n">
         <v>4100</v>
       </c>
       <c r="G8" t="n">
-        <v>3437</v>
+        <v>3414</v>
       </c>
       <c r="H8" t="n">
-        <v>663</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.7703863568133551</v>
+        <v>0.779727259558025</v>
       </c>
       <c r="F9" t="n">
         <v>333</v>
       </c>
       <c r="G9" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H9" t="n">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
